--- a/_data/ni/ni9495/individueel_eindstand_dworp_123_9495.xlsx
+++ b/_data/ni/ni9495/individueel_eindstand_dworp_123_9495.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="12840" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="225">
   <si>
     <t>Jaar 1</t>
   </si>
@@ -154,102 +154,9 @@
     <t>4F</t>
   </si>
   <si>
-    <t>Fous Du Roy 1</t>
-  </si>
-  <si>
-    <t>Soignies 2</t>
-  </si>
-  <si>
-    <t>Mons 3</t>
-  </si>
-  <si>
-    <t>Roque 4</t>
-  </si>
-  <si>
-    <t>Lessines 1</t>
-  </si>
-  <si>
-    <t>Wavre 2</t>
-  </si>
-  <si>
-    <t>La Louvière</t>
-  </si>
-  <si>
-    <t>Lokeren 1</t>
-  </si>
-  <si>
-    <t>Opwijk 1</t>
-  </si>
-  <si>
-    <t>Geraardsbergen 2</t>
-  </si>
-  <si>
-    <t>Humbeek 2</t>
-  </si>
-  <si>
-    <t>Mariakerke 2</t>
-  </si>
-  <si>
-    <t>Dendermonde 3</t>
-  </si>
-  <si>
-    <t>Ruisbroek</t>
-  </si>
-  <si>
-    <t>Woluwe 2</t>
-  </si>
-  <si>
     <t>5G</t>
   </si>
   <si>
-    <t>Carnières</t>
-  </si>
-  <si>
-    <t>Tournai</t>
-  </si>
-  <si>
-    <t>Montagnard 2</t>
-  </si>
-  <si>
-    <t>CRE Bruxelles 4</t>
-  </si>
-  <si>
-    <t>TSM Mechelen 3</t>
-  </si>
-  <si>
-    <t>Tervuren</t>
-  </si>
-  <si>
-    <t>Roque 5</t>
-  </si>
-  <si>
-    <t>Oudenaarde 2</t>
-  </si>
-  <si>
-    <t>CRE Charleroi 4</t>
-  </si>
-  <si>
-    <t>Humbeek 3</t>
-  </si>
-  <si>
-    <t>Fous du Roy 3</t>
-  </si>
-  <si>
-    <t>Machelen 2</t>
-  </si>
-  <si>
-    <t>Desperado 2</t>
-  </si>
-  <si>
-    <t>Leuven 4</t>
-  </si>
-  <si>
-    <t>Londerzeel</t>
-  </si>
-  <si>
-    <t>Mons 4</t>
-  </si>
-  <si>
     <t>228 Dworp 1</t>
   </si>
   <si>
@@ -292,42 +199,6 @@
     <t>Van der Voorde Sonja</t>
   </si>
   <si>
-    <t>Vandecasteele L</t>
-  </si>
-  <si>
-    <t>Versailles M</t>
-  </si>
-  <si>
-    <t>Gosseye C</t>
-  </si>
-  <si>
-    <t>Parys P</t>
-  </si>
-  <si>
-    <t>Van Steenkiste L</t>
-  </si>
-  <si>
-    <t>Lamon D</t>
-  </si>
-  <si>
-    <t>Bruynooghe JP</t>
-  </si>
-  <si>
-    <t>Saelens G</t>
-  </si>
-  <si>
-    <t>Van Praet V</t>
-  </si>
-  <si>
-    <t>Rasson A</t>
-  </si>
-  <si>
-    <t>Grauwels P</t>
-  </si>
-  <si>
-    <t>Kojeli A</t>
-  </si>
-  <si>
     <t>Lot Diederik</t>
   </si>
   <si>
@@ -337,162 +208,36 @@
     <t>ng</t>
   </si>
   <si>
-    <t>Manne JL</t>
-  </si>
-  <si>
-    <t>Courbot L</t>
-  </si>
-  <si>
-    <t>Courbot JL</t>
-  </si>
-  <si>
-    <t>Loriaux J</t>
-  </si>
-  <si>
-    <t>De Muynck J</t>
-  </si>
-  <si>
-    <t>De Saegher J</t>
-  </si>
-  <si>
-    <t>Peelman L</t>
-  </si>
-  <si>
-    <t>De Fre W</t>
-  </si>
-  <si>
-    <t>Dessomme F</t>
-  </si>
-  <si>
-    <t>Lanneau B</t>
-  </si>
-  <si>
-    <t>Michotte S</t>
-  </si>
-  <si>
-    <t>Dupont JJ</t>
-  </si>
-  <si>
-    <t>Levers T</t>
-  </si>
-  <si>
-    <t>Franc E</t>
-  </si>
-  <si>
-    <t>Guedira S</t>
-  </si>
-  <si>
-    <t>Callens P</t>
-  </si>
-  <si>
-    <t>Van Den Broeck Wim</t>
-  </si>
-  <si>
     <t>Roels Louis</t>
   </si>
   <si>
-    <t>Stinis Stefaan</t>
-  </si>
-  <si>
     <t>Van Aken Kris</t>
   </si>
   <si>
-    <t>Buffel E</t>
-  </si>
-  <si>
     <t>Crabbé Danny</t>
   </si>
   <si>
-    <t>Moeyersons K</t>
-  </si>
-  <si>
-    <t>Meynaerts E</t>
-  </si>
-  <si>
     <t>Masure Luc</t>
   </si>
   <si>
     <t>Hannecart Marc</t>
   </si>
   <si>
-    <t>Quievy P</t>
-  </si>
-  <si>
-    <t>Knudde F</t>
-  </si>
-  <si>
-    <t>De Reu P</t>
-  </si>
-  <si>
-    <t>Kegels K</t>
-  </si>
-  <si>
-    <t>Develder J</t>
-  </si>
-  <si>
-    <t>De Pauw S</t>
-  </si>
-  <si>
     <t xml:space="preserve">Van Aken Koen </t>
   </si>
   <si>
-    <t>Schrevens J</t>
-  </si>
-  <si>
     <t>Schrevens Birger</t>
   </si>
   <si>
-    <t>Govers K</t>
-  </si>
-  <si>
-    <t>De Muynck D</t>
-  </si>
-  <si>
-    <t>Odeur H</t>
-  </si>
-  <si>
-    <t>De Pauw D</t>
-  </si>
-  <si>
-    <t>Josse M</t>
-  </si>
-  <si>
-    <t>Michils S</t>
-  </si>
-  <si>
-    <t>Van Reyn J</t>
-  </si>
-  <si>
-    <t>Rando M</t>
-  </si>
-  <si>
-    <t>Atcheba R</t>
-  </si>
-  <si>
-    <t>Renaers L</t>
-  </si>
-  <si>
-    <t>Robeyns B</t>
-  </si>
-  <si>
     <t>Beckers Frank</t>
   </si>
   <si>
-    <t>Pelgrims M</t>
-  </si>
-  <si>
     <t>De Smedt Jean-Pierre</t>
   </si>
   <si>
     <t>Leloutre Bernard</t>
   </si>
   <si>
-    <t>Boon T</t>
-  </si>
-  <si>
-    <t>André H</t>
-  </si>
-  <si>
     <t>Coppens Jean</t>
   </si>
   <si>
@@ -517,114 +262,21 @@
     <t>Cools Jos</t>
   </si>
   <si>
-    <t>Decok M</t>
-  </si>
-  <si>
-    <t>Tournoy G</t>
-  </si>
-  <si>
-    <t>Raindorf JM</t>
-  </si>
-  <si>
-    <t>Szapu B</t>
-  </si>
-  <si>
-    <t>Vandersteenen E</t>
-  </si>
-  <si>
-    <t>Duchesne M</t>
-  </si>
-  <si>
-    <t>Wijns D</t>
-  </si>
-  <si>
-    <t>Deweerdt J</t>
-  </si>
-  <si>
-    <t>Schnieders R</t>
-  </si>
-  <si>
-    <t>Gorczyca X</t>
-  </si>
-  <si>
-    <t>Giansante P</t>
-  </si>
-  <si>
-    <t>Houdart R</t>
-  </si>
-  <si>
-    <t>Desinte D</t>
-  </si>
-  <si>
-    <t>Motte J</t>
-  </si>
-  <si>
-    <t>Vercleyen J</t>
-  </si>
-  <si>
-    <t>Lallemand P</t>
-  </si>
-  <si>
-    <t>Van Hauwe R</t>
-  </si>
-  <si>
     <t>Burnay Gerard</t>
   </si>
   <si>
-    <t>Frederiksen J</t>
-  </si>
-  <si>
-    <t>Gustin P</t>
-  </si>
-  <si>
-    <t>Gallone D</t>
-  </si>
-  <si>
     <t>Louckx André</t>
   </si>
   <si>
     <t>Perpete Raymond</t>
   </si>
   <si>
-    <t>De Briey L</t>
-  </si>
-  <si>
-    <t>Lecocq J</t>
-  </si>
-  <si>
-    <t>Volant P</t>
-  </si>
-  <si>
-    <t>Heyman P</t>
-  </si>
-  <si>
-    <t>Colders F</t>
-  </si>
-  <si>
-    <t>Debacq J</t>
-  </si>
-  <si>
-    <t>Derycke J</t>
-  </si>
-  <si>
-    <t>Domus O</t>
-  </si>
-  <si>
     <t>Uylenbroeck Roland</t>
   </si>
   <si>
-    <t>Van Geyt V</t>
-  </si>
-  <si>
     <t>Huysman Robert</t>
   </si>
   <si>
-    <t>Becker T</t>
-  </si>
-  <si>
-    <t>Van den Hove A</t>
-  </si>
-  <si>
     <t>De Meester David</t>
   </si>
   <si>
@@ -637,48 +289,12 @@
     <t>Bosschem Marc</t>
   </si>
   <si>
-    <t>De Block G</t>
-  </si>
-  <si>
-    <t>Buelens R</t>
-  </si>
-  <si>
-    <t>Ringoet M</t>
-  </si>
-  <si>
-    <t>De Ridder E</t>
-  </si>
-  <si>
-    <t>Baeyens B</t>
-  </si>
-  <si>
     <t>Heremans Gersende</t>
   </si>
   <si>
-    <t>Delhaye JJ</t>
-  </si>
-  <si>
-    <t>Lushay K</t>
-  </si>
-  <si>
-    <t>Brion P</t>
-  </si>
-  <si>
-    <t>De Vleeschouwer R</t>
-  </si>
-  <si>
-    <t>De Vriendt P</t>
-  </si>
-  <si>
     <t>Yody Steve</t>
   </si>
   <si>
-    <t>Fous du Roy 1</t>
-  </si>
-  <si>
-    <t>Jean Jaures Gent 3</t>
-  </si>
-  <si>
     <t>(bye)</t>
   </si>
   <si>
@@ -704,6 +320,390 @@
   </si>
   <si>
     <t>ontdekking 13/02/2017: ronde 11 Mertens wint</t>
+  </si>
+  <si>
+    <t>505 Carnières</t>
+  </si>
+  <si>
+    <t>521 Tournai</t>
+  </si>
+  <si>
+    <t>506 Mons 3</t>
+  </si>
+  <si>
+    <t>245 Roque 4</t>
+  </si>
+  <si>
+    <t>533 Lessines 1</t>
+  </si>
+  <si>
+    <t>526 Montagnards 2</t>
+  </si>
+  <si>
+    <t>511 La Louvière</t>
+  </si>
+  <si>
+    <t>203 Fous Du Roy 1</t>
+  </si>
+  <si>
+    <t>260 Humbeek 2</t>
+  </si>
+  <si>
+    <t>436 Lokeren 1</t>
+  </si>
+  <si>
+    <t>402 Jean Jaures Gent 3</t>
+  </si>
+  <si>
+    <t>418 Geraardsbergen 2</t>
+  </si>
+  <si>
+    <t>166 TSM Mechelen 3</t>
+  </si>
+  <si>
+    <t>241 Tervuren</t>
+  </si>
+  <si>
+    <t>261 Opwijk 1</t>
+  </si>
+  <si>
+    <t>425 Dendermonde 3</t>
+  </si>
+  <si>
+    <t>245 Roque 5</t>
+  </si>
+  <si>
+    <t>501 CRE Charleroi 4</t>
+  </si>
+  <si>
+    <t>229 Woluwe 2</t>
+  </si>
+  <si>
+    <t>249 Ruisbroek</t>
+  </si>
+  <si>
+    <t>260 Humbeek 3</t>
+  </si>
+  <si>
+    <t>203 Fous du Roy 3</t>
+  </si>
+  <si>
+    <t>240 Machelen 2</t>
+  </si>
+  <si>
+    <t>266 Desperado 2</t>
+  </si>
+  <si>
+    <t>243 Leuven 4</t>
+  </si>
+  <si>
+    <t>268 Londerzeel</t>
+  </si>
+  <si>
+    <t>506 Mons 4</t>
+  </si>
+  <si>
+    <t>460 Oudenaarde 2</t>
+  </si>
+  <si>
+    <t>442 Mariakerke 2</t>
+  </si>
+  <si>
+    <t>952 Wavre 2</t>
+  </si>
+  <si>
+    <t>518 Soignies 2</t>
+  </si>
+  <si>
+    <t>201 CRE Bruxelles 4</t>
+  </si>
+  <si>
+    <t>Vandecasteele Louis</t>
+  </si>
+  <si>
+    <t>Versailles Marc</t>
+  </si>
+  <si>
+    <t>Gosseye Christophe</t>
+  </si>
+  <si>
+    <t>Parys Pierre</t>
+  </si>
+  <si>
+    <t>Van Steenkiste Luc</t>
+  </si>
+  <si>
+    <t>Lamon Daniel</t>
+  </si>
+  <si>
+    <t>Bruynooghe Jean-Pierre</t>
+  </si>
+  <si>
+    <t>Saelens Gerard</t>
+  </si>
+  <si>
+    <t>Van Praet Vincent</t>
+  </si>
+  <si>
+    <t>Rasson André</t>
+  </si>
+  <si>
+    <t>Grauwels Peter</t>
+  </si>
+  <si>
+    <t>Kojeli Avin</t>
+  </si>
+  <si>
+    <t>Peelman Lieven</t>
+  </si>
+  <si>
+    <t>De Fré Walter</t>
+  </si>
+  <si>
+    <t>Loriaux Jacques</t>
+  </si>
+  <si>
+    <t>Courbot Luc</t>
+  </si>
+  <si>
+    <t>Courbot Jean-Luc</t>
+  </si>
+  <si>
+    <t>Manne Jean-Luc</t>
+  </si>
+  <si>
+    <t>Lanneau Bertrand</t>
+  </si>
+  <si>
+    <t>Michotte Sebastien</t>
+  </si>
+  <si>
+    <t>Dupont Jean-Jacques</t>
+  </si>
+  <si>
+    <t>Dessomme François</t>
+  </si>
+  <si>
+    <t>203 Fous du Roy 1</t>
+  </si>
+  <si>
+    <t>Levers Thierry</t>
+  </si>
+  <si>
+    <t>Franc Emmanuel</t>
+  </si>
+  <si>
+    <t>Guedira Said</t>
+  </si>
+  <si>
+    <t>Callens Paul</t>
+  </si>
+  <si>
+    <t>Stinis Steven</t>
+  </si>
+  <si>
+    <t>Van Den Boeck Wim</t>
+  </si>
+  <si>
+    <t>Meynaerts Erik</t>
+  </si>
+  <si>
+    <t>Moeyersons Koenraad</t>
+  </si>
+  <si>
+    <t>Buffel Ely</t>
+  </si>
+  <si>
+    <t>Schrevens Jelle</t>
+  </si>
+  <si>
+    <t>Govers Kevin</t>
+  </si>
+  <si>
+    <t>Quievy Pascal</t>
+  </si>
+  <si>
+    <t>Knudde Francis</t>
+  </si>
+  <si>
+    <t>De Reu Paul</t>
+  </si>
+  <si>
+    <t>Kegels Kristof</t>
+  </si>
+  <si>
+    <t>Develder Jacques</t>
+  </si>
+  <si>
+    <t>De Pauw Stefaan</t>
+  </si>
+  <si>
+    <t>De Muynck Daniel</t>
+  </si>
+  <si>
+    <t>Odeur Hubert</t>
+  </si>
+  <si>
+    <t>De Pauw Damien</t>
+  </si>
+  <si>
+    <t>Josse Michel</t>
+  </si>
+  <si>
+    <t>Michils Stephane</t>
+  </si>
+  <si>
+    <t>Rando Manuel</t>
+  </si>
+  <si>
+    <t>Atcheba Raouf</t>
+  </si>
+  <si>
+    <t>Van Reyn Jacques</t>
+  </si>
+  <si>
+    <t>Renaers Ludo</t>
+  </si>
+  <si>
+    <t>Robeyns Bart</t>
+  </si>
+  <si>
+    <t>Pelgrims Marc</t>
+  </si>
+  <si>
+    <t>Boon Thierry</t>
+  </si>
+  <si>
+    <t>André Henri-Jean</t>
+  </si>
+  <si>
+    <t>Decok Marcel</t>
+  </si>
+  <si>
+    <t>Duchesne Marc</t>
+  </si>
+  <si>
+    <t>Wijns Daniel</t>
+  </si>
+  <si>
+    <t>Deweerdt Jan</t>
+  </si>
+  <si>
+    <t>Schnieders Rik</t>
+  </si>
+  <si>
+    <t>Tournoy Georges</t>
+  </si>
+  <si>
+    <t>Raindorf Jean-Michel</t>
+  </si>
+  <si>
+    <t>Szapu Bela</t>
+  </si>
+  <si>
+    <t>Vandersteenen Eddy</t>
+  </si>
+  <si>
+    <t>Gorczyca Xavier</t>
+  </si>
+  <si>
+    <t>Giansante Peppino</t>
+  </si>
+  <si>
+    <t>Houdart Raymond</t>
+  </si>
+  <si>
+    <t>Desinte David</t>
+  </si>
+  <si>
+    <t>Motte Jan</t>
+  </si>
+  <si>
+    <t>Vercleyen Julien</t>
+  </si>
+  <si>
+    <t>Lallemand Paul</t>
+  </si>
+  <si>
+    <t>Van Hauwe Hendrik</t>
+  </si>
+  <si>
+    <t>Frederiksen Jens</t>
+  </si>
+  <si>
+    <t>Gustin Peter</t>
+  </si>
+  <si>
+    <t>Gallone David</t>
+  </si>
+  <si>
+    <t>Domus Oswald</t>
+  </si>
+  <si>
+    <t>Van Geyt Vincent</t>
+  </si>
+  <si>
+    <t>Heyman Paul</t>
+  </si>
+  <si>
+    <t>Colders Frans</t>
+  </si>
+  <si>
+    <t>Debacq Jacques</t>
+  </si>
+  <si>
+    <t>Derijcke Julien</t>
+  </si>
+  <si>
+    <t>Lecocq Joel</t>
+  </si>
+  <si>
+    <t>Volant Pascal</t>
+  </si>
+  <si>
+    <t>De Briey Laurent</t>
+  </si>
+  <si>
+    <t>Becker Thierry</t>
+  </si>
+  <si>
+    <t>Van den Hove Anugrah</t>
+  </si>
+  <si>
+    <t>De Block Gert</t>
+  </si>
+  <si>
+    <t>Buelens Roger</t>
+  </si>
+  <si>
+    <t>Ringoet Marc</t>
+  </si>
+  <si>
+    <t>De Ridder Erik</t>
+  </si>
+  <si>
+    <t>Baeyens Bart</t>
+  </si>
+  <si>
+    <t>Delhaye Jean-Jacques</t>
+  </si>
+  <si>
+    <t>Lushaj Kujtim</t>
+  </si>
+  <si>
+    <t>Brion Philippe</t>
+  </si>
+  <si>
+    <t>De Vleeschauwer Raoul</t>
+  </si>
+  <si>
+    <t>De Vriendt Augustin</t>
+  </si>
+  <si>
+    <t>De Munck Jan</t>
+  </si>
+  <si>
+    <t>De Saegher Johan</t>
   </si>
 </sst>
 </file>
@@ -1795,8 +1795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1849,7 +1849,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1">
@@ -1860,7 +1860,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="D12" s="69" t="s">
-        <v>224</v>
+        <v>96</v>
       </c>
       <c r="E12" s="69"/>
       <c r="F12" s="69"/>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="D13" s="69" t="s">
-        <v>223</v>
+        <v>95</v>
       </c>
       <c r="E13" s="69"/>
       <c r="F13" s="69"/>
@@ -1885,9 +1885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1926,15 +1924,17 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="15" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -1972,11 +1972,15 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>88684</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="18"/>
+        <v>210</v>
+      </c>
+      <c r="D5" s="18">
+        <v>2096</v>
+      </c>
       <c r="E5" s="10">
         <v>1</v>
       </c>
@@ -1990,21 +1994,25 @@
         <v>2283</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="J5" s="18">
-        <v>1962</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>1287</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="18"/>
+        <v>79</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1987</v>
+      </c>
       <c r="E6" s="10">
         <v>0</v>
       </c>
@@ -2018,21 +2026,25 @@
         <v>76325</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="J6" s="18">
-        <v>1943</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>1465</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="18"/>
+        <v>208</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1863</v>
+      </c>
       <c r="E7" s="10">
         <v>1</v>
       </c>
@@ -2046,21 +2058,25 @@
         <v>353</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="J7" s="18">
-        <v>1901</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>82651</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="18"/>
+        <v>209</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1666</v>
+      </c>
       <c r="E8" s="10">
         <v>0.5</v>
       </c>
@@ -2074,10 +2090,10 @@
         <v>76317</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="J8" s="18">
-        <v>1840</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2115,9 +2131,9 @@
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v/>
+        <v>1903</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -2132,7 +2148,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v>1911.5</v>
+        <v>1909.75</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -2147,15 +2163,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="15" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -2193,11 +2211,15 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>31666</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="18"/>
+        <v>204</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1925</v>
+      </c>
       <c r="E15" s="10">
         <v>0.5</v>
       </c>
@@ -2211,21 +2233,25 @@
         <v>31526</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="J15" s="18">
-        <v>2013</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>17060</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D16" s="18"/>
+        <v>205</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1926</v>
+      </c>
       <c r="E16" s="10">
         <v>1</v>
       </c>
@@ -2239,21 +2265,25 @@
         <v>43419</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="J16" s="18">
-        <v>1743</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>17035</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D17" s="18"/>
+        <v>206</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1870</v>
+      </c>
       <c r="E17" s="10">
         <v>0.5</v>
       </c>
@@ -2267,21 +2297,25 @@
         <v>655</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="J17" s="18">
-        <v>1743</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>23949</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D18" s="18"/>
+        <v>207</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1868</v>
+      </c>
       <c r="E18" s="12">
         <v>1</v>
       </c>
@@ -2295,18 +2329,18 @@
         <v>27715</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="J18" s="18">
-        <v>1731</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v/>
+        <v>1897.25</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -2321,7 +2355,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v>1807.5</v>
+        <v>1829.75</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -2336,15 +2370,17 @@
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I21" s="15" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -2382,11 +2418,15 @@
       <c r="A23" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="19">
+        <v>1767</v>
+      </c>
       <c r="C23" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D23" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1986</v>
+      </c>
       <c r="E23" s="10">
         <v>0</v>
       </c>
@@ -2400,21 +2440,25 @@
         <v>43419</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J23" s="18">
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>65935</v>
+      </c>
       <c r="C24" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="D24" s="18"/>
+        <v>80</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1832</v>
+      </c>
       <c r="E24" s="10">
         <v>0</v>
       </c>
@@ -2428,21 +2472,25 @@
         <v>33910</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="J24" s="18">
-        <v>1702</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>40151</v>
+      </c>
       <c r="C25" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="D25" s="18"/>
+        <v>203</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1593</v>
+      </c>
       <c r="E25" s="10">
         <v>0</v>
       </c>
@@ -2456,21 +2504,25 @@
         <v>97595</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="J25" s="18">
-        <v>1622</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19">
+        <v>15482</v>
+      </c>
       <c r="C26" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D26" s="18"/>
+        <v>81</v>
+      </c>
+      <c r="D26" s="18">
+        <v>1659</v>
+      </c>
       <c r="E26" s="12">
         <v>0</v>
       </c>
@@ -2484,18 +2536,18 @@
         <v>43346</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="J26" s="18">
-        <v>1552</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="16">
         <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v/>
+        <v>1767.5</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -2510,7 +2562,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v>1648.5</v>
+        <v>1649</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -2659,9 +2711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2696,9 +2746,11 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2708,7 +2760,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -2750,10 +2802,10 @@
         <v>2283</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D5" s="18">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="E5" s="10">
         <v>0</v>
@@ -2764,11 +2816,15 @@
       <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>76902</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="J5" s="18"/>
+        <v>211</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1946</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
@@ -2778,10 +2834,10 @@
         <v>76325</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D6" s="18">
-        <v>1943</v>
+        <v>1917</v>
       </c>
       <c r="E6" s="10">
         <v>0</v>
@@ -2792,11 +2848,15 @@
       <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>25992</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="J6" s="18"/>
+        <v>212</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1749</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
@@ -2806,10 +2866,10 @@
         <v>353</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="D7" s="18">
-        <v>1901</v>
+        <v>1889</v>
       </c>
       <c r="E7" s="10">
         <v>0.5</v>
@@ -2820,11 +2880,15 @@
       <c r="G7" s="10">
         <v>0.5</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>90417</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="J7" s="18"/>
+        <v>82</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1712</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
@@ -2834,10 +2898,10 @@
         <v>76317</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D8" s="18">
-        <v>1840</v>
+        <v>1875</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>
@@ -2848,11 +2912,15 @@
       <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>67164</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="J8" s="18"/>
+        <v>174</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1350</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5">
@@ -2891,7 +2959,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v>1911.5</v>
+        <v>1909.75</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -2904,9 +2972,9 @@
         <v>2.5</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v/>
+        <v>1689.25</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -2917,9 +2985,11 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2929,7 +2999,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -2971,10 +3041,10 @@
         <v>31526</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D15" s="18">
-        <v>2013</v>
+        <v>1985</v>
       </c>
       <c r="E15" s="10">
         <v>1</v>
@@ -2985,11 +3055,15 @@
       <c r="G15" s="10">
         <v>0</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>48569</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="J15" s="18"/>
+        <v>83</v>
+      </c>
+      <c r="J15" s="18">
+        <v>2094</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
@@ -2999,10 +3073,10 @@
         <v>76333</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D16" s="18">
-        <v>1859</v>
+        <v>1862</v>
       </c>
       <c r="E16" s="10">
         <v>1</v>
@@ -3013,11 +3087,15 @@
       <c r="G16" s="10">
         <v>0</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>34126</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="J16" s="18"/>
+        <v>85</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1842</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5">
@@ -3027,10 +3105,10 @@
         <v>655</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D17" s="18">
-        <v>1743</v>
+        <v>1768</v>
       </c>
       <c r="E17" s="10">
         <v>1</v>
@@ -3041,11 +3119,15 @@
       <c r="G17" s="10">
         <v>0</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>14419</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="J17" s="18"/>
+        <v>84</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1757</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
@@ -3055,10 +3137,10 @@
         <v>27715</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D18" s="18">
-        <v>1731</v>
+        <v>1671</v>
       </c>
       <c r="E18" s="12">
         <v>0</v>
@@ -3069,18 +3151,22 @@
       <c r="G18" s="12">
         <v>1</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>12670</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="J18" s="18"/>
+        <v>213</v>
+      </c>
+      <c r="J18" s="18">
+        <v>1351</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v>1836.5</v>
+        <v>1821.5</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -3093,9 +3179,9 @@
         <v>1</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v/>
+        <v>1761</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -3106,9 +3192,11 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C21" s="15" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -3118,7 +3206,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -3160,10 +3248,10 @@
         <v>43419</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="D23" s="18">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="E23" s="10">
         <v>0</v>
@@ -3174,11 +3262,15 @@
       <c r="G23" s="10">
         <v>1</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="68" t="s">
-        <v>203</v>
-      </c>
-      <c r="J23" s="18"/>
+      <c r="H23" s="19">
+        <v>13846</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
@@ -3188,10 +3280,10 @@
         <v>33910</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="D24" s="18">
-        <v>1702</v>
+        <v>1708</v>
       </c>
       <c r="E24" s="10">
         <v>0.5</v>
@@ -3202,11 +3294,15 @@
       <c r="G24" s="10">
         <v>0.5</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19">
+        <v>8125</v>
+      </c>
       <c r="I24" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="J24" s="18"/>
+        <v>215</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
@@ -3216,10 +3312,10 @@
         <v>43346</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="D25" s="18">
-        <v>1552</v>
+        <v>1542</v>
       </c>
       <c r="E25" s="10">
         <v>1</v>
@@ -3230,11 +3326,15 @@
       <c r="G25" s="10">
         <v>0</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>9041</v>
+      </c>
       <c r="I25" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="J25" s="18"/>
+        <v>216</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
@@ -3244,10 +3344,10 @@
         <v>9954</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="E26" s="12">
         <v>1</v>
@@ -3258,18 +3358,22 @@
       <c r="G26" s="12">
         <v>0</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>8681</v>
+      </c>
       <c r="I26" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="J26" s="18"/>
+        <v>217</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16">
         <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v>1657.3333333333333</v>
+        <v>1656.3333333333333</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -3433,9 +3537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19:O20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3474,15 +3576,17 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="15" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -3520,11 +3624,15 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>92665</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" s="18"/>
+        <v>87</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1970</v>
+      </c>
       <c r="E5" s="10">
         <v>1</v>
       </c>
@@ -3538,21 +3646,25 @@
         <v>2283</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="J5" s="18">
-        <v>1962</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>87556</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D6" s="18"/>
+        <v>218</v>
+      </c>
+      <c r="D6" s="18">
+        <v>2008</v>
+      </c>
       <c r="E6" s="10">
         <v>0.5</v>
       </c>
@@ -3566,21 +3678,25 @@
         <v>353</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="J6" s="18">
-        <v>1901</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>63029</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="18"/>
+        <v>219</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1929</v>
+      </c>
       <c r="E7" s="10">
         <v>1</v>
       </c>
@@ -3594,21 +3710,25 @@
         <v>76317</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="J7" s="18">
-        <v>1840</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>74888</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="D8" s="18"/>
+        <v>220</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1902</v>
+      </c>
       <c r="E8" s="10">
         <v>0</v>
       </c>
@@ -3622,10 +3742,10 @@
         <v>43419</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="J8" s="18">
-        <v>1859</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3663,9 +3783,9 @@
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v/>
+        <v>1952.25</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -3680,7 +3800,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v>1890.5</v>
+        <v>1904.25</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -3695,15 +3815,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="15" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -3741,11 +3863,15 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>21920</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D15" s="18"/>
+        <v>221</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1917</v>
+      </c>
       <c r="E15" s="10">
         <v>0</v>
       </c>
@@ -3759,21 +3885,25 @@
         <v>31526</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="J15" s="18">
-        <v>2013</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>62316</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D16" s="18"/>
+        <v>222</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1628</v>
+      </c>
       <c r="E16" s="10">
         <v>0</v>
       </c>
@@ -3787,21 +3917,25 @@
         <v>76333</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="J16" s="18">
-        <v>1859</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>41777</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="D17" s="18"/>
+        <v>89</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1670</v>
+      </c>
       <c r="E17" s="10">
         <v>1</v>
       </c>
@@ -3815,21 +3949,25 @@
         <v>655</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="J17" s="18">
-        <v>1743</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>36005</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="D18" s="18"/>
+        <v>90</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1486</v>
+      </c>
       <c r="E18" s="12">
         <v>0</v>
       </c>
@@ -3843,18 +3981,18 @@
         <v>33910</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="J18" s="18">
-        <v>1702</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v/>
+        <v>1675.25</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -3869,7 +4007,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v>1829.25</v>
+        <v>1830.75</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -3884,15 +4022,17 @@
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I21" s="15" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -3930,11 +4070,15 @@
       <c r="A23" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="19">
+        <v>81418</v>
+      </c>
       <c r="C23" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="D23" s="18"/>
+        <v>92</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="E23" s="10">
         <v>0</v>
       </c>
@@ -3948,21 +4092,25 @@
         <v>43419</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J23" s="18">
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>85766</v>
+      </c>
       <c r="C24" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="D24" s="18"/>
+        <v>91</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="E24" s="10">
         <v>0.5</v>
       </c>
@@ -3976,21 +4124,25 @@
         <v>43346</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="J24" s="18">
-        <v>1552</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>85219</v>
+      </c>
       <c r="C25" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="D25" s="18"/>
+        <v>93</v>
+      </c>
+      <c r="D25" s="18">
+        <v>824</v>
+      </c>
       <c r="E25" s="10">
         <v>0.5</v>
       </c>
@@ -4004,21 +4156,25 @@
         <v>2259</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="J25" s="18">
-        <v>1239</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19">
+        <v>86037</v>
+      </c>
       <c r="C26" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="D26" s="18"/>
+        <v>94</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="E26" s="12">
         <v>0</v>
       </c>
@@ -4032,18 +4188,18 @@
         <v>9954</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="16">
         <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v/>
+        <v>824</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -4058,7 +4214,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v>1503</v>
+        <v>1507</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -4207,9 +4363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ280"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4319,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>37</v>
@@ -4470,7 +4624,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="C5" s="41">
         <v>2.5</v>
@@ -4621,7 +4775,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C6" s="41">
         <v>1</v>
@@ -4772,7 +4926,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C7" s="41">
         <v>1</v>
@@ -4923,7 +5077,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C8" s="41">
         <v>2.5</v>
@@ -5074,7 +5228,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C9" s="41">
         <v>2</v>
@@ -5225,7 +5379,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C10" s="41">
         <v>0.5</v>
@@ -5376,7 +5530,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C11" s="41">
         <v>1</v>
@@ -5527,7 +5681,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="C12" s="41">
         <v>1</v>
@@ -5678,7 +5832,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C13" s="41">
         <v>1</v>
@@ -5829,7 +5983,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="C14" s="41">
         <v>1.5</v>
@@ -5980,7 +6134,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="C15" s="46">
         <v>0</v>
@@ -6225,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="C18" s="40" t="s">
         <v>37</v>
@@ -6376,7 +6530,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="C19" s="41">
         <v>3</v>
@@ -6527,7 +6681,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="C20" s="41">
         <v>1</v>
@@ -6678,7 +6832,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="C21" s="41">
         <v>1</v>
@@ -6829,7 +6983,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="C22" s="41">
         <v>0</v>
@@ -6980,7 +7134,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="C23" s="41">
         <v>2</v>
@@ -7131,7 +7285,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="C24" s="41">
         <v>1</v>
@@ -7282,7 +7436,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C25" s="41">
         <v>0.5</v>
@@ -7433,7 +7587,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C26" s="41">
         <v>1</v>
@@ -7584,7 +7738,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="C27" s="41">
         <v>0</v>
@@ -7735,7 +7889,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="C28" s="41">
         <v>1</v>
@@ -7886,7 +8040,7 @@
         <v>12</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="C29" s="46">
         <v>0</v>
@@ -8131,7 +8285,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="C32" s="40" t="s">
         <v>37</v>
@@ -8280,7 +8434,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="C33" s="41">
         <v>1.5</v>
@@ -8429,7 +8583,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C34" s="41">
         <v>2</v>
@@ -8578,7 +8732,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="C35" s="41">
         <v>0.5</v>
@@ -8727,7 +8881,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="C36" s="41">
         <v>0.5</v>
@@ -8876,7 +9030,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="C37" s="41">
         <v>1</v>
@@ -9025,7 +9179,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="C38" s="41">
         <v>0.5</v>
@@ -9174,7 +9328,7 @@
         <v>8</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="C39" s="41">
         <v>0</v>
@@ -9323,7 +9477,7 @@
         <v>9</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="C40" s="41">
         <v>1.5</v>
@@ -9472,7 +9626,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="C41" s="41">
         <v>0</v>
@@ -9621,7 +9775,7 @@
         <v>11</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="C42" s="41">
         <v>0</v>
@@ -14642,9 +14796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -14683,7 +14835,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -14693,7 +14845,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -14735,7 +14887,7 @@
         <v>2283</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D5" s="18">
         <v>1962</v>
@@ -14743,15 +14895,21 @@
       <c r="E5" s="10">
         <v>0.5</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G5" s="10">
         <v>0.5</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>73504</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="J5" s="18"/>
+        <v>129</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1936</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
@@ -14761,7 +14919,7 @@
         <v>76325</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D6" s="18">
         <v>1943</v>
@@ -14769,15 +14927,21 @@
       <c r="E6" s="10">
         <v>0</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>89389</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6" s="18"/>
+        <v>130</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1678</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
@@ -14787,7 +14951,7 @@
         <v>353</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="D7" s="18">
         <v>1901</v>
@@ -14795,15 +14959,21 @@
       <c r="E7" s="10">
         <v>0.5</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" s="10">
         <v>0.5</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>74161</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" s="18"/>
+        <v>131</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1598</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
@@ -14813,7 +14983,7 @@
         <v>76317</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D8" s="18">
         <v>1840</v>
@@ -14821,15 +14991,21 @@
       <c r="E8" s="10">
         <v>0.5</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G8" s="10">
         <v>0.5</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>74993</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="J8" s="18"/>
+        <v>132</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1567</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5">
@@ -14881,9 +15057,9 @@
         <v>2.5</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v/>
+        <v>1694.75</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -14898,7 +15074,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -14908,7 +15084,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -14950,7 +15126,7 @@
         <v>31526</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D15" s="18">
         <v>2013</v>
@@ -14964,11 +15140,15 @@
       <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>53449</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="J15" s="18"/>
+        <v>133</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1901</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
@@ -14978,7 +15158,7 @@
         <v>9270</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="D16" s="18">
         <v>1895</v>
@@ -14992,11 +15172,15 @@
       <c r="G16" s="10">
         <v>0.5</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>44270</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="J16" s="18"/>
+        <v>134</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1807</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5">
@@ -15006,7 +15190,7 @@
         <v>76333</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D17" s="18">
         <v>1876</v>
@@ -15020,11 +15204,15 @@
       <c r="G17" s="10">
         <v>1</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>49689</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="J17" s="18"/>
+        <v>135</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1802</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
@@ -15034,7 +15222,7 @@
         <v>655</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D18" s="18">
         <v>1743</v>
@@ -15048,11 +15236,15 @@
       <c r="G18" s="12">
         <v>0</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>9318</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J18" s="18"/>
+        <v>136</v>
+      </c>
+      <c r="J18" s="18">
+        <v>1776</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
@@ -15072,9 +15264,9 @@
         <v>2.5</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v/>
+        <v>1821.5</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -15089,7 +15281,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -15099,7 +15291,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -15141,7 +15333,7 @@
         <v>27715</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D23" s="18">
         <v>1731</v>
@@ -15155,11 +15347,15 @@
       <c r="G23" s="10">
         <v>0.5</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19">
+        <v>87947</v>
+      </c>
       <c r="I23" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J23" s="18"/>
+        <v>137</v>
+      </c>
+      <c r="J23" s="18">
+        <v>1610</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
@@ -15169,7 +15365,7 @@
         <v>43419</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="D24" s="18">
         <v>1718</v>
@@ -15183,11 +15379,15 @@
       <c r="G24" s="10">
         <v>0</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19">
+        <v>95877</v>
+      </c>
       <c r="I24" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J24" s="18"/>
+        <v>138</v>
+      </c>
+      <c r="J24" s="18">
+        <v>1506</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
@@ -15197,7 +15397,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="D25" s="18">
         <v>1552</v>
@@ -15211,11 +15411,15 @@
       <c r="G25" s="10">
         <v>1</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>84107</v>
+      </c>
       <c r="I25" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="J25" s="18"/>
+        <v>139</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1423</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
@@ -15225,10 +15429,10 @@
         <v>9954</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="E26" s="12">
         <v>1</v>
@@ -15239,11 +15443,15 @@
       <c r="G26" s="12">
         <v>0</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>84379</v>
+      </c>
       <c r="I26" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="J26" s="18"/>
+        <v>140</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
@@ -15263,9 +15471,9 @@
         <v>1.5</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="16" t="str">
+      <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v/>
+        <v>1513</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -15414,9 +15622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -15455,15 +15661,17 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="15" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -15501,15 +15709,21 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>91201</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="18"/>
+        <v>146</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1807</v>
+      </c>
       <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G5" s="10">
         <v>0</v>
       </c>
@@ -15517,7 +15731,7 @@
         <v>2283</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="J5" s="18">
         <v>1962</v>
@@ -15527,15 +15741,21 @@
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>68667</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="18"/>
+        <v>144</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1789</v>
+      </c>
       <c r="E6" s="10">
         <v>0.5</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G6" s="10">
         <v>0.5</v>
       </c>
@@ -15543,7 +15763,7 @@
         <v>76325</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="J6" s="18">
         <v>1943</v>
@@ -15553,15 +15773,21 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>64441</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="18"/>
+        <v>145</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1743</v>
+      </c>
       <c r="E7" s="10">
         <v>0</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" s="10">
         <v>1</v>
       </c>
@@ -15569,7 +15795,7 @@
         <v>353</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="J7" s="18">
         <v>1901</v>
@@ -15579,15 +15805,21 @@
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>86592</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="18"/>
+        <v>143</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1709</v>
+      </c>
       <c r="E8" s="10">
         <v>0</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G8" s="10">
         <v>1</v>
       </c>
@@ -15595,7 +15827,7 @@
         <v>76317</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="J8" s="18">
         <v>1840</v>
@@ -15636,9 +15868,9 @@
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v/>
+        <v>1762</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -15668,15 +15900,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="15" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -15714,11 +15948,15 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>21938</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="18"/>
+        <v>223</v>
+      </c>
+      <c r="D15" s="18">
+        <v>2063</v>
+      </c>
       <c r="E15" s="10">
         <v>1</v>
       </c>
@@ -15732,7 +15970,7 @@
         <v>31526</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="J15" s="18">
         <v>2013</v>
@@ -15742,11 +15980,15 @@
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>21717</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="18"/>
+        <v>224</v>
+      </c>
+      <c r="D16" s="18">
+        <v>2028</v>
+      </c>
       <c r="E16" s="10">
         <v>0.5</v>
       </c>
@@ -15760,7 +16002,7 @@
         <v>76333</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="J16" s="18">
         <v>1876</v>
@@ -15770,11 +16012,15 @@
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>89265</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="18"/>
+        <v>141</v>
+      </c>
+      <c r="D17" s="18">
+        <v>2000</v>
+      </c>
       <c r="E17" s="10">
         <v>0.5</v>
       </c>
@@ -15788,7 +16034,7 @@
         <v>43419</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="J17" s="18">
         <v>1859</v>
@@ -15798,11 +16044,15 @@
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>41955</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="18"/>
+        <v>142</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1979</v>
+      </c>
       <c r="E18" s="12">
         <v>1</v>
       </c>
@@ -15816,7 +16066,7 @@
         <v>655</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="J18" s="18">
         <v>1743</v>
@@ -15825,9 +16075,9 @@
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v/>
+        <v>2017.5</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -15857,15 +16107,17 @@
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I21" s="15" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -15903,11 +16155,15 @@
       <c r="A23" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="19">
+        <v>74063</v>
+      </c>
       <c r="C23" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="18"/>
+        <v>150</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1887</v>
+      </c>
       <c r="E23" s="10">
         <v>1</v>
       </c>
@@ -15921,7 +16177,7 @@
         <v>27715</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="J23" s="18">
         <v>1731</v>
@@ -15931,11 +16187,15 @@
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>60712</v>
+      </c>
       <c r="C24" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="18"/>
+        <v>147</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1876</v>
+      </c>
       <c r="E24" s="10">
         <v>0</v>
       </c>
@@ -15949,7 +16209,7 @@
         <v>43419</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J24" s="18">
         <v>1718</v>
@@ -15959,11 +16219,15 @@
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>66346</v>
+      </c>
       <c r="C25" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="18"/>
+        <v>148</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1783</v>
+      </c>
       <c r="E25" s="10">
         <v>1</v>
       </c>
@@ -15977,7 +16241,7 @@
         <v>43346</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="J25" s="18">
         <v>1552</v>
@@ -15987,11 +16251,15 @@
       <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19">
+        <v>73954</v>
+      </c>
       <c r="C26" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="18"/>
+        <v>149</v>
+      </c>
+      <c r="D26" s="18">
+        <v>1440</v>
+      </c>
       <c r="E26" s="12">
         <v>0</v>
       </c>
@@ -16005,18 +16273,18 @@
         <v>9954</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="16">
         <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v/>
+        <v>1746.5</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -16180,9 +16448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -16217,9 +16483,11 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -16229,7 +16497,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -16271,7 +16539,7 @@
         <v>2283</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D5" s="18">
         <v>1962</v>
@@ -16279,15 +16547,21 @@
       <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>63134</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="J5" s="18"/>
+        <v>152</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1964</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
@@ -16297,7 +16571,7 @@
         <v>76325</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D6" s="18">
         <v>1943</v>
@@ -16305,15 +16579,21 @@
       <c r="E6" s="10">
         <v>0</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>93084</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="J6" s="18"/>
+        <v>153</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1871</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
@@ -16323,7 +16603,7 @@
         <v>353</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="D7" s="18">
         <v>1901</v>
@@ -16331,15 +16611,21 @@
       <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>84590</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="J7" s="18"/>
+        <v>154</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1877</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
@@ -16349,7 +16635,7 @@
         <v>76317</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D8" s="18">
         <v>1840</v>
@@ -16357,15 +16643,21 @@
       <c r="E8" s="10">
         <v>0.5</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G8" s="10">
         <v>0.5</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>62260</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="J8" s="18"/>
+        <v>155</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1841</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5">
@@ -16417,9 +16709,9 @@
         <v>1.5</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v/>
+        <v>1888.25</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -16430,9 +16722,11 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -16442,7 +16736,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -16484,7 +16778,7 @@
         <v>31526</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D15" s="18">
         <v>2013</v>
@@ -16498,11 +16792,15 @@
       <c r="G15" s="10">
         <v>0.5</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="J15" s="18"/>
+      <c r="H15" s="19">
+        <v>43613</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1973</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
@@ -16512,7 +16810,7 @@
         <v>9270</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="D16" s="18">
         <v>1895</v>
@@ -16526,11 +16824,15 @@
       <c r="G16" s="10">
         <v>1</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>11169</v>
+      </c>
       <c r="I16" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="J16" s="18"/>
+        <v>60</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1964</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5">
@@ -16540,7 +16842,7 @@
         <v>76333</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D17" s="18">
         <v>1859</v>
@@ -16554,11 +16856,15 @@
       <c r="G17" s="10">
         <v>1</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>6807</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="J17" s="18"/>
+        <v>156</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1864</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
@@ -16568,7 +16874,7 @@
         <v>43419</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D18" s="18">
         <v>1743</v>
@@ -16582,11 +16888,15 @@
       <c r="G18" s="12">
         <v>0.5</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>21733</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="J18" s="18"/>
+        <v>59</v>
+      </c>
+      <c r="J18" s="18">
+        <v>1957</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
@@ -16606,9 +16916,9 @@
         <v>3</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v/>
+        <v>1939.5</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -16619,9 +16929,11 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C21" s="15" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -16631,7 +16943,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -16673,7 +16985,7 @@
         <v>655</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D23" s="18">
         <v>1743</v>
@@ -16687,11 +16999,15 @@
       <c r="G23" s="10">
         <v>0.5</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19">
+        <v>21202</v>
+      </c>
       <c r="I23" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="J23" s="18"/>
+        <v>158</v>
+      </c>
+      <c r="J23" s="18">
+        <v>1756</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
@@ -16701,7 +17017,7 @@
         <v>27715</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D24" s="18">
         <v>1731</v>
@@ -16715,11 +17031,15 @@
       <c r="G24" s="10">
         <v>0.5</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19">
+        <v>48470</v>
+      </c>
       <c r="I24" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="J24" s="18"/>
+        <v>160</v>
+      </c>
+      <c r="J24" s="18">
+        <v>1726</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
@@ -16729,7 +17049,7 @@
         <v>43419</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="D25" s="18">
         <v>1718</v>
@@ -16743,11 +17063,15 @@
       <c r="G25" s="10">
         <v>0</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>5797</v>
+      </c>
       <c r="I25" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="J25" s="18"/>
+        <v>61</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1494</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
@@ -16757,7 +17081,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="D26" s="18">
         <v>1552</v>
@@ -16771,11 +17095,15 @@
       <c r="G26" s="12">
         <v>1</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>6050</v>
+      </c>
       <c r="I26" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="J26" s="18"/>
+        <v>159</v>
+      </c>
+      <c r="J26" s="18">
+        <v>1349</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
@@ -16795,9 +17123,9 @@
         <v>2</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="16" t="str">
+      <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v/>
+        <v>1581.25</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -16946,9 +17274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -16987,15 +17313,17 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="15" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -17033,15 +17361,21 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>59811</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="18"/>
+        <v>62</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1917</v>
+      </c>
       <c r="E5" s="10">
         <v>0</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G5" s="10">
         <v>1</v>
       </c>
@@ -17049,7 +17383,7 @@
         <v>2283</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="J5" s="18">
         <v>1962</v>
@@ -17059,15 +17393,21 @@
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>81523</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="18"/>
+        <v>63</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1860</v>
+      </c>
       <c r="E6" s="10">
         <v>0</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G6" s="10">
         <v>1</v>
       </c>
@@ -17075,7 +17415,7 @@
         <v>76325</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="J6" s="18">
         <v>1943</v>
@@ -17085,15 +17425,21 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>71412</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="18"/>
+        <v>163</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1753</v>
+      </c>
       <c r="E7" s="10">
         <v>0.5</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" s="10">
         <v>0.5</v>
       </c>
@@ -17101,7 +17447,7 @@
         <v>353</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="J7" s="18">
         <v>1901</v>
@@ -17111,15 +17457,21 @@
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>71081</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="18"/>
+        <v>164</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1811</v>
+      </c>
       <c r="E8" s="10">
         <v>0</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G8" s="10">
         <v>1</v>
       </c>
@@ -17127,7 +17479,7 @@
         <v>76317</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="J8" s="18">
         <v>1840</v>
@@ -17168,9 +17520,9 @@
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v/>
+        <v>1835.25</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -17200,15 +17552,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="15" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -17246,11 +17600,15 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>1589</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="18"/>
+        <v>165</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1854</v>
+      </c>
       <c r="E15" s="10">
         <v>1</v>
       </c>
@@ -17264,7 +17622,7 @@
         <v>31526</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="J15" s="18">
         <v>2013</v>
@@ -17274,11 +17632,15 @@
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>47400</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="18"/>
+        <v>166</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1836</v>
+      </c>
       <c r="E16" s="10">
         <v>0.5</v>
       </c>
@@ -17292,7 +17654,7 @@
         <v>76333</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="J16" s="18">
         <v>1859</v>
@@ -17302,11 +17664,15 @@
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>50369</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="18"/>
+        <v>167</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1846</v>
+      </c>
       <c r="E17" s="10">
         <v>0</v>
       </c>
@@ -17320,7 +17686,7 @@
         <v>43419</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="J17" s="18">
         <v>1743</v>
@@ -17330,11 +17696,15 @@
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>41301</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="18"/>
+        <v>168</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1756</v>
+      </c>
       <c r="E18" s="12">
         <v>1</v>
       </c>
@@ -17348,7 +17718,7 @@
         <v>655</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="J18" s="18">
         <v>1743</v>
@@ -17357,9 +17727,9 @@
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v/>
+        <v>1823</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -17389,15 +17759,17 @@
         <v>11</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I21" s="15" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -17435,11 +17807,15 @@
       <c r="A23" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="19">
+        <v>10561</v>
+      </c>
       <c r="C23" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="18"/>
+        <v>64</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1596</v>
+      </c>
       <c r="E23" s="10">
         <v>0.5</v>
       </c>
@@ -17453,7 +17829,7 @@
         <v>27715</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="J23" s="18">
         <v>1731</v>
@@ -17463,11 +17839,15 @@
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>11070</v>
+      </c>
       <c r="C24" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="18"/>
+        <v>161</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1443</v>
+      </c>
       <c r="E24" s="10">
         <v>1</v>
       </c>
@@ -17481,7 +17861,7 @@
         <v>43419</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J24" s="18">
         <v>1718</v>
@@ -17491,11 +17871,15 @@
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>10421</v>
+      </c>
       <c r="C25" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="18"/>
+        <v>65</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1374</v>
+      </c>
       <c r="E25" s="10">
         <v>0.5</v>
       </c>
@@ -17509,7 +17893,7 @@
         <v>43346</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="J25" s="18">
         <v>1552</v>
@@ -17519,11 +17903,15 @@
       <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19">
+        <v>72494</v>
+      </c>
       <c r="C26" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D26" s="18"/>
+        <v>162</v>
+      </c>
+      <c r="D26" s="18">
+        <v>1334</v>
+      </c>
       <c r="E26" s="12">
         <v>0</v>
       </c>
@@ -17537,18 +17925,18 @@
         <v>9954</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="16">
         <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v/>
+        <v>1436.75</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -17712,9 +18100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -17749,9 +18135,11 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -17761,7 +18149,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -17803,7 +18191,7 @@
         <v>2283</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D5" s="18">
         <v>1962</v>
@@ -17811,15 +18199,21 @@
       <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>67440</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="J5" s="18"/>
+        <v>169</v>
+      </c>
+      <c r="J5" s="18">
+        <v>2003</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
@@ -17829,7 +18223,7 @@
         <v>76325</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D6" s="18">
         <v>1943</v>
@@ -17837,15 +18231,21 @@
       <c r="E6" s="10">
         <v>0.5</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G6" s="10">
         <v>0.5</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>92002</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="J6" s="18"/>
+        <v>170</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1997</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
@@ -17855,7 +18255,7 @@
         <v>353</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="D7" s="18">
         <v>1901</v>
@@ -17863,15 +18263,21 @@
       <c r="E7" s="10">
         <v>0</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>69311</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="J7" s="18"/>
+        <v>171</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1949</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
@@ -17881,7 +18287,7 @@
         <v>76317</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D8" s="18">
         <v>1840</v>
@@ -17889,15 +18295,21 @@
       <c r="E8" s="10">
         <v>1</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>82066</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="J8" s="18"/>
+        <v>172</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1760</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5">
@@ -17949,9 +18361,9 @@
         <v>1.5</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v/>
+        <v>1927.25</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -17962,9 +18374,11 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -17974,7 +18388,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -18016,7 +18430,7 @@
         <v>31526</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D15" s="18">
         <v>2013</v>
@@ -18030,11 +18444,15 @@
       <c r="G15" s="10">
         <v>0</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>82791</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J15" s="18"/>
+        <v>173</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1531</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
@@ -18044,7 +18462,7 @@
         <v>76333</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D16" s="18">
         <v>1859</v>
@@ -18058,11 +18476,15 @@
       <c r="G16" s="10">
         <v>0</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>38881</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="J16" s="18"/>
+        <v>176</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1455</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5">
@@ -18072,7 +18494,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D17" s="18">
         <v>1743</v>
@@ -18086,11 +18508,15 @@
       <c r="G17" s="10">
         <v>0</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>67164</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="J17" s="18"/>
+        <v>174</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1323</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
@@ -18100,7 +18526,7 @@
         <v>655</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D18" s="18">
         <v>1743</v>
@@ -18114,11 +18540,15 @@
       <c r="G18" s="12">
         <v>0</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>84964</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="J18" s="18"/>
+        <v>175</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
@@ -18138,9 +18568,9 @@
         <v>0</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v/>
+        <v>1436.3333333333333</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -18151,9 +18581,11 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C21" s="15" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -18163,7 +18595,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -18205,7 +18637,7 @@
         <v>27715</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D23" s="18">
         <v>1731</v>
@@ -18219,11 +18651,15 @@
       <c r="G23" s="10">
         <v>1</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19">
+        <v>3115</v>
+      </c>
       <c r="I23" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="J23" s="18"/>
+        <v>177</v>
+      </c>
+      <c r="J23" s="18">
+        <v>1631</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
@@ -18233,7 +18669,7 @@
         <v>43419</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="D24" s="18">
         <v>1718</v>
@@ -18247,11 +18683,15 @@
       <c r="G24" s="10">
         <v>0</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19">
+        <v>3271</v>
+      </c>
       <c r="I24" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="J24" s="18"/>
+        <v>178</v>
+      </c>
+      <c r="J24" s="18">
+        <v>1617</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
@@ -18261,7 +18701,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="D25" s="18">
         <v>1552</v>
@@ -18275,11 +18715,15 @@
       <c r="G25" s="10">
         <v>0</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>10090</v>
+      </c>
       <c r="I25" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="J25" s="18"/>
+        <v>66</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1551</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
@@ -18289,10 +18733,10 @@
         <v>9954</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="E26" s="12">
         <v>0.5</v>
@@ -18303,11 +18747,15 @@
       <c r="G26" s="12">
         <v>0.5</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>49077</v>
+      </c>
       <c r="I26" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="J26" s="18"/>
+        <v>179</v>
+      </c>
+      <c r="J26" s="18">
+        <v>1324</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
@@ -18327,9 +18775,9 @@
         <v>1.5</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="16" t="str">
+      <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v/>
+        <v>1530.75</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -18478,9 +18926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24:J24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -18515,9 +18961,11 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -18527,7 +18975,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -18569,7 +19017,7 @@
         <v>2283</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D5" s="18">
         <v>1962</v>
@@ -18583,11 +19031,15 @@
       <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>92916</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="J5" s="18"/>
+        <v>68</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1867</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
@@ -18597,7 +19049,7 @@
         <v>76325</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D6" s="18">
         <v>1943</v>
@@ -18611,11 +19063,15 @@
       <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>74225</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="J6" s="18"/>
+        <v>180</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1810</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
@@ -18625,7 +19081,7 @@
         <v>353</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="D7" s="18">
         <v>1901</v>
@@ -18639,11 +19095,15 @@
       <c r="G7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>93181</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="J7" s="18"/>
+        <v>181</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1760</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
@@ -18653,7 +19113,7 @@
         <v>76317</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D8" s="18">
         <v>1840</v>
@@ -18667,11 +19127,15 @@
       <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>20087</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="J8" s="18"/>
+        <v>69</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1685</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5">
@@ -18723,9 +19187,9 @@
         <v>3</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v/>
+        <v>1780.5</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -18736,9 +19200,11 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -18748,7 +19214,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -18790,7 +19256,7 @@
         <v>31526</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D15" s="18">
         <v>2013</v>
@@ -18804,11 +19270,15 @@
       <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>57011</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="J15" s="18"/>
+        <v>70</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1966</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
@@ -18818,7 +19288,7 @@
         <v>9270</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="D16" s="18">
         <v>1895</v>
@@ -18832,11 +19302,15 @@
       <c r="G16" s="10">
         <v>0.5</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>2330</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="J16" s="18"/>
+        <v>71</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1935</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5">
@@ -18846,7 +19320,7 @@
         <v>43419</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D17" s="18">
         <v>1743</v>
@@ -18860,11 +19334,15 @@
       <c r="G17" s="10">
         <v>1</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>5932</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="J17" s="18"/>
+        <v>72</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1892</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
@@ -18874,7 +19352,7 @@
         <v>27715</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D18" s="18">
         <v>1731</v>
@@ -18888,11 +19366,15 @@
       <c r="G18" s="12">
         <v>1</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>40860</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="J18" s="18"/>
+        <v>73</v>
+      </c>
+      <c r="J18" s="18">
+        <v>1802</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
@@ -18912,9 +19394,9 @@
         <v>3.5</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v/>
+        <v>1898.75</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -18925,17 +19407,21 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C21" s="15" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I21" s="15" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -18973,11 +19459,15 @@
       <c r="A23" s="5">
         <v>1</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="19">
+        <v>62944</v>
+      </c>
       <c r="C23" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D23" s="18"/>
+        <v>74</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1734</v>
+      </c>
       <c r="E23" s="10">
         <v>1</v>
       </c>
@@ -18991,7 +19481,7 @@
         <v>43419</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J23" s="18">
         <v>1718</v>
@@ -19001,11 +19491,15 @@
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>46582</v>
+      </c>
       <c r="C24" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D24" s="18"/>
+        <v>75</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1730</v>
+      </c>
       <c r="E24" s="10">
         <v>1</v>
       </c>
@@ -19019,7 +19513,7 @@
         <v>33910</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="J24" s="18">
         <v>1702</v>
@@ -19029,11 +19523,15 @@
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="19">
+        <v>8664</v>
+      </c>
       <c r="C25" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="D25" s="18"/>
+        <v>76</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1657</v>
+      </c>
       <c r="E25" s="10">
         <v>0</v>
       </c>
@@ -19047,7 +19545,7 @@
         <v>43346</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="J25" s="18">
         <v>1552</v>
@@ -19057,11 +19555,15 @@
       <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="19">
+        <v>256</v>
+      </c>
       <c r="C26" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D26" s="18"/>
+        <v>182</v>
+      </c>
+      <c r="D26" s="18">
+        <v>1431</v>
+      </c>
       <c r="E26" s="12">
         <v>0</v>
       </c>
@@ -19075,18 +19577,18 @@
         <v>9954</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="16" t="str">
+      <c r="C27" s="16">
         <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v/>
+        <v>1638</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -19250,9 +19752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -19291,15 +19791,17 @@
         <v>11</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="15" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -19337,11 +19839,15 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="19">
+        <v>64408</v>
+      </c>
       <c r="C5" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" s="18"/>
+        <v>187</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1781</v>
+      </c>
       <c r="E5" s="10">
         <v>0</v>
       </c>
@@ -19355,7 +19861,7 @@
         <v>2283</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="J5" s="18">
         <v>1962</v>
@@ -19365,11 +19871,15 @@
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="19">
+        <v>24945</v>
+      </c>
       <c r="C6" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" s="18"/>
+        <v>188</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1733</v>
+      </c>
       <c r="E6" s="10">
         <v>0</v>
       </c>
@@ -19383,7 +19893,7 @@
         <v>76325</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="J6" s="18">
         <v>1943</v>
@@ -19393,11 +19903,15 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="19">
+        <v>69345</v>
+      </c>
       <c r="C7" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7" s="18"/>
+        <v>189</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1429</v>
+      </c>
       <c r="E7" s="10">
         <v>0</v>
       </c>
@@ -19411,7 +19925,7 @@
         <v>353</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="J7" s="18">
         <v>1901</v>
@@ -19421,11 +19935,15 @@
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19">
+        <v>58734</v>
+      </c>
       <c r="C8" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="18"/>
+        <v>190</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1232</v>
+      </c>
       <c r="E8" s="10">
         <v>0</v>
       </c>
@@ -19439,7 +19957,7 @@
         <v>76317</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="J8" s="18">
         <v>1840</v>
@@ -19480,9 +19998,9 @@
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="16" t="str">
+      <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v/>
+        <v>1543.75</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -19512,15 +20030,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="15" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -19558,11 +20078,15 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="19">
+        <v>27278</v>
+      </c>
       <c r="C15" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="18"/>
+        <v>183</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1876</v>
+      </c>
       <c r="E15" s="10">
         <v>1</v>
       </c>
@@ -19576,7 +20100,7 @@
         <v>31526</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="J15" s="18">
         <v>2013</v>
@@ -19586,11 +20110,15 @@
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="19">
+        <v>27341</v>
+      </c>
       <c r="C16" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D16" s="18"/>
+        <v>184</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1856</v>
+      </c>
       <c r="E16" s="10">
         <v>1</v>
       </c>
@@ -19604,7 +20132,7 @@
         <v>43419</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="J16" s="18">
         <v>1743</v>
@@ -19614,11 +20142,15 @@
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="19">
+        <v>13315</v>
+      </c>
       <c r="C17" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" s="18"/>
+        <v>185</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="E17" s="10">
         <v>1</v>
       </c>
@@ -19632,7 +20164,7 @@
         <v>655</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="J17" s="18">
         <v>1743</v>
@@ -19642,11 +20174,15 @@
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="19">
+        <v>11037</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="18"/>
+        <v>186</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="E18" s="12">
         <v>1</v>
       </c>
@@ -19660,7 +20196,7 @@
         <v>27715</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="J18" s="18">
         <v>1731</v>
@@ -19669,9 +20205,9 @@
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="16" t="str">
+      <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v/>
+        <v>1866</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -19709,7 +20245,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -19757,7 +20293,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="19"/>
       <c r="I23" s="14" t="s">
-        <v>216</v>
+        <v>88</v>
       </c>
       <c r="J23" s="18"/>
     </row>
@@ -19775,7 +20311,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="19"/>
       <c r="I24" s="14" t="s">
-        <v>216</v>
+        <v>88</v>
       </c>
       <c r="J24" s="18"/>
     </row>
@@ -19793,7 +20329,7 @@
       <c r="G25" s="10"/>
       <c r="H25" s="19"/>
       <c r="I25" s="14" t="s">
-        <v>216</v>
+        <v>88</v>
       </c>
       <c r="J25" s="18"/>
     </row>
@@ -19811,7 +20347,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="19"/>
       <c r="I26" s="14" t="s">
-        <v>216</v>
+        <v>88</v>
       </c>
       <c r="J26" s="18"/>
     </row>
@@ -19980,9 +20516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -20017,9 +20551,11 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" s="15" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -20029,7 +20565,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -20071,10 +20607,10 @@
         <v>2283</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D5" s="18">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="E5" s="10">
         <v>1</v>
@@ -20085,11 +20621,15 @@
       <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19">
+        <v>31381</v>
+      </c>
       <c r="I5" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="J5" s="18"/>
+        <v>191</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1820</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
@@ -20099,10 +20639,10 @@
         <v>76325</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D6" s="18">
-        <v>1943</v>
+        <v>1917</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
@@ -20113,11 +20653,15 @@
       <c r="G6" s="10">
         <v>0</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>63975</v>
+      </c>
       <c r="I6" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="J6" s="18"/>
+        <v>192</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1708</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
@@ -20127,10 +20671,10 @@
         <v>353</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="D7" s="18">
-        <v>1901</v>
+        <v>1889</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
@@ -20141,11 +20685,15 @@
       <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19">
+        <v>30848</v>
+      </c>
       <c r="I7" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="J7" s="18"/>
+        <v>193</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1609</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
@@ -20155,10 +20703,10 @@
         <v>76317</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D8" s="18">
-        <v>1840</v>
+        <v>1875</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>
@@ -20169,11 +20717,15 @@
       <c r="G8" s="10">
         <v>0</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="19">
+        <v>66800</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="J8" s="18"/>
+        <v>194</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1573</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5">
@@ -20212,7 +20764,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="16">
         <f>IFERROR(AVERAGE(D5:D10),"")</f>
-        <v>1911.5</v>
+        <v>1909.75</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="13">
@@ -20225,9 +20777,9 @@
         <v>0</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="16">
         <f>IFERROR(AVERAGE(J5:J10),"")</f>
-        <v/>
+        <v>1677.5</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -20238,9 +20790,11 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -20250,7 +20804,7 @@
         <v>12</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -20292,10 +20846,10 @@
         <v>31526</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D15" s="18">
-        <v>2013</v>
+        <v>1985</v>
       </c>
       <c r="E15" s="10">
         <v>1</v>
@@ -20306,11 +20860,15 @@
       <c r="G15" s="10">
         <v>0</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19">
+        <v>32794</v>
+      </c>
       <c r="I15" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="J15" s="18"/>
+        <v>195</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1953</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
@@ -20320,10 +20878,10 @@
         <v>9270</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="D16" s="18">
-        <v>1895</v>
+        <v>1870</v>
       </c>
       <c r="E16" s="10">
         <v>1</v>
@@ -20334,11 +20892,15 @@
       <c r="G16" s="10">
         <v>0</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19">
+        <v>81515</v>
+      </c>
       <c r="I16" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="J16" s="18"/>
+        <v>196</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1887</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5">
@@ -20348,10 +20910,10 @@
         <v>43419</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D17" s="18">
-        <v>1743</v>
+        <v>1895</v>
       </c>
       <c r="E17" s="10">
         <v>0</v>
@@ -20362,11 +20924,15 @@
       <c r="G17" s="10">
         <v>1</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19">
+        <v>61476</v>
+      </c>
       <c r="I17" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="J17" s="18"/>
+        <v>197</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1818</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5">
@@ -20376,10 +20942,10 @@
         <v>655</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D18" s="18">
-        <v>1743</v>
+        <v>1768</v>
       </c>
       <c r="E18" s="12">
         <v>0.5</v>
@@ -20390,18 +20956,22 @@
       <c r="G18" s="12">
         <v>0.5</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>6301</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="J18" s="18"/>
+        <v>198</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v>1848.5</v>
+        <v>1879.5</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -20414,9 +20984,9 @@
         <v>1.5</v>
       </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="16" t="str">
+      <c r="I19" s="16">
         <f>IFERROR(AVERAGE(J15:J18),"")</f>
-        <v/>
+        <v>1886</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -20427,9 +20997,11 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C21" s="15" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -20439,7 +21011,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -20481,10 +21053,10 @@
         <v>27715</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D23" s="18">
-        <v>1731</v>
+        <v>1671</v>
       </c>
       <c r="E23" s="10">
         <v>1</v>
@@ -20495,11 +21067,15 @@
       <c r="G23" s="10">
         <v>0</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19">
+        <v>92452</v>
+      </c>
       <c r="I23" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="J23" s="18"/>
+        <v>77</v>
+      </c>
+      <c r="J23" s="18">
+        <v>1998</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5">
@@ -20509,10 +21085,10 @@
         <v>43419</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="D24" s="18">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="E24" s="10">
         <v>0</v>
@@ -20523,11 +21099,15 @@
       <c r="G24" s="10">
         <v>1</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19">
+        <v>78697</v>
+      </c>
       <c r="I24" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="J24" s="18"/>
+        <v>199</v>
+      </c>
+      <c r="J24" s="18">
+        <v>1912</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5">
@@ -20537,10 +21117,10 @@
         <v>43346</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="D25" s="18">
-        <v>1552</v>
+        <v>1542</v>
       </c>
       <c r="E25" s="10">
         <v>0.5</v>
@@ -20551,11 +21131,15 @@
       <c r="G25" s="10">
         <v>0.5</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>27812</v>
+      </c>
       <c r="I25" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="J25" s="18"/>
+        <v>200</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1805</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5">
@@ -20565,10 +21149,10 @@
         <v>9954</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="E26" s="12">
         <v>0</v>
@@ -20579,18 +21163,22 @@
       <c r="G26" s="12">
         <v>1</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>69175</v>
+      </c>
       <c r="I26" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="J26" s="18"/>
+        <v>201</v>
+      </c>
+      <c r="J26" s="18">
+        <v>1758</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16">
         <f>IFERROR(AVERAGE(D23:D26),"")</f>
-        <v>1667</v>
+        <v>1644</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="13">
@@ -20603,9 +21191,9 @@
         <v>2.5</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="16" t="str">
+      <c r="I27" s="16">
         <f>IFERROR(AVERAGE(J23:J26),"")</f>
-        <v/>
+        <v>1868.25</v>
       </c>
       <c r="J27" s="3"/>
     </row>

--- a/_data/ni/ni9495/individueel_eindstand_dworp_123_9495.xlsx
+++ b/_data/ni/ni9495/individueel_eindstand_dworp_123_9495.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="12840"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="12840" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="229">
   <si>
     <t>Jaar 1</t>
   </si>
@@ -697,13 +697,25 @@
     <t>De Vleeschauwer Raoul</t>
   </si>
   <si>
-    <t>De Vriendt Augustin</t>
-  </si>
-  <si>
     <t>De Munck Jan</t>
   </si>
   <si>
     <t>De Saegher Johan</t>
+  </si>
+  <si>
+    <t>De Vriendt P</t>
+  </si>
+  <si>
+    <t>DEVRIENDT PATRICK</t>
+  </si>
+  <si>
+    <t>DEVRIENDT AUGUSTIN</t>
+  </si>
+  <si>
+    <t>elolijst januari 1995</t>
+  </si>
+  <si>
+    <t>Patrick is niet actief, elo blijft in latere lijsten ongewijzigd, dus het zou moeten Augustin zijn.</t>
   </si>
 </sst>
 </file>
@@ -801,7 +813,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -847,6 +859,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,7 +1323,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1492,6 +1510,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1795,7 +1815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3535,9 +3555,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3552,9 +3572,14 @@
     <col min="9" max="9" width="30.7109375" customWidth="1"/>
     <col min="10" max="10" width="6.7109375" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:19" ht="21">
       <c r="A1" s="25" t="s">
         <v>30</v>
       </c>
@@ -3565,12 +3590,12 @@
         <v>34777</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" thickBot="1">
+    <row r="2" spans="1:19" ht="19.5" thickBot="1">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:19">
       <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -3590,7 +3615,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:19">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -3620,7 +3645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:19">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3652,7 +3677,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:19">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -3684,7 +3709,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:19">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -3716,7 +3741,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:19">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -3748,7 +3773,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:19">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -3764,7 +3789,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1">
+    <row r="10" spans="1:19" ht="15.75" thickBot="1">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -3780,7 +3805,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="16">
@@ -3804,12 +3829,12 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" thickBot="1">
+    <row r="12" spans="1:19" ht="19.5" thickBot="1">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:19">
       <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
@@ -3829,7 +3854,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:19">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -3859,7 +3884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:19">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -3890,20 +3915,20 @@
       <c r="J15" s="18">
         <v>1985</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="L15" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="M15" s="70"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="19">
-        <v>62316</v>
-      </c>
+      <c r="B16" s="19"/>
       <c r="C16" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="D16" s="18">
-        <v>1628</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="D16" s="18"/>
       <c r="E16" s="10">
         <v>0</v>
       </c>
@@ -3922,8 +3947,28 @@
       <c r="J16" s="18">
         <v>1862</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="L16" s="70">
+        <v>50288</v>
+      </c>
+      <c r="M16" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="N16" s="70">
+        <v>408</v>
+      </c>
+      <c r="O16" s="71">
+        <v>20511</v>
+      </c>
+      <c r="P16" s="70">
+        <v>1726</v>
+      </c>
+      <c r="Q16" s="70">
+        <v>28</v>
+      </c>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -3954,8 +3999,28 @@
       <c r="J17" s="18">
         <v>1768</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+      <c r="L17" s="70">
+        <v>62316</v>
+      </c>
+      <c r="M17" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="N17" s="70">
+        <v>425</v>
+      </c>
+      <c r="O17" s="71">
+        <v>21199</v>
+      </c>
+      <c r="P17" s="70">
+        <v>1628</v>
+      </c>
+      <c r="Q17" s="70">
+        <v>391</v>
+      </c>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" thickBot="1">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -3986,13 +4051,23 @@
       <c r="J18" s="18">
         <v>1708</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="L18" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+    </row>
+    <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
       <c r="C19" s="16">
         <f>IFERROR(AVERAGE(D15:D18),"")</f>
-        <v>1675.25</v>
+        <v>1691</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="13">
@@ -4011,12 +4086,12 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="19.5" thickBot="1">
+    <row r="20" spans="1:19" ht="19.5" thickBot="1">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:19">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
         <v>11</v>
@@ -4036,7 +4111,7 @@
       </c>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:19">
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
@@ -4066,7 +4141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:19">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -4098,7 +4173,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:19">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -4130,7 +4205,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:19">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -4162,7 +4237,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+    <row r="26" spans="1:19" ht="15.75" thickBot="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -4194,7 +4269,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
       <c r="C27" s="16">
@@ -4218,12 +4293,12 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5" thickBot="1">
+    <row r="28" spans="1:19" ht="19.5" thickBot="1">
       <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:19">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
         <v>11</v>
@@ -4239,7 +4314,7 @@
       <c r="I29" s="15"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:19">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -4269,7 +4344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:19">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -4285,7 +4360,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:19">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -15952,7 +16027,7 @@
         <v>21938</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D15" s="18">
         <v>2063</v>
@@ -15984,7 +16059,7 @@
         <v>21717</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D16" s="18">
         <v>2028</v>
